--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1431.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1431.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.784898535724879</v>
+        <v>0.3430825769901276</v>
       </c>
       <c r="B1">
-        <v>2.008593385849826</v>
+        <v>3.416850566864014</v>
       </c>
       <c r="C1">
-        <v>2.072182912281282</v>
+        <v>5.935484409332275</v>
       </c>
       <c r="D1">
-        <v>2.80363078222927</v>
+        <v>1.657985687255859</v>
       </c>
       <c r="E1">
-        <v>2.697699469609517</v>
+        <v>0.9946198463439941</v>
       </c>
     </row>
   </sheetData>
